--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:23:26+00:00</t>
+    <t>2022-07-25T18:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:27:38+00:00</t>
+    <t>2022-08-02T22:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T22:12:01+00:00</t>
+    <t>2022-08-08T16:02:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:02:07+00:00</t>
+    <t>2022-08-23T21:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:32:32+00:00</t>
+    <t>2022-08-23T22:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T22:37:21+00:00</t>
+    <t>2022-08-24T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T23:51:36+00:00</t>
+    <t>2022-09-01T16:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:06:59+00:00</t>
+    <t>2022-09-01T16:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:21:50+00:00</t>
+    <t>2022-09-01T16:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:52:18+00:00</t>
+    <t>2022-09-01T17:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T17:06:09+00:00</t>
+    <t>2022-09-01T19:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T19:48:46+00:00</t>
+    <t>2022-09-27T22:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:39:14+00:00</t>
+    <t>2022-10-05T22:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T22:20:29+00:00</t>
+    <t>2022-10-11T16:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,53 +256,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -920,7 +920,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -939,25 +939,25 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1008,13 +1008,13 @@
         <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>75</v>
@@ -1023,12 +1023,12 @@
         <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1051,13 +1051,13 @@
         <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1096,19 +1096,19 @@
         <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>76</v>
@@ -1120,7 +1120,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>75</v>
@@ -1136,10 +1136,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>75</v>
@@ -1213,10 +1213,10 @@
         <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>75</v>
@@ -1238,10 +1238,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>101</v>
@@ -1316,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T16:14:09+00:00</t>
+    <t>2022-10-17T23:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:41:26+00:00</t>
+    <t>2022-10-27T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:03:31+00:00</t>
+    <t>2022-10-27T21:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:56:37+00:00</t>
+    <t>2022-10-28T23:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T23:08:22+00:00</t>
+    <t>2022-10-31T19:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T19:28:42+00:00</t>
+    <t>2022-11-01T15:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T15:06:35+00:00</t>
+    <t>2022-11-14T22:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:17:10+00:00</t>
+    <t>2022-11-14T22:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:35:25+00:00</t>
+    <t>2022-11-15T19:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T19:54:41+00:00</t>
+    <t>2022-11-16T00:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:01:38+00:00</t>
+    <t>2022-11-16T00:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:00+00:00</t>
+    <t>2022-11-16T00:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:48+00:00</t>
+    <t>2022-11-17T20:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T20:58:34+00:00</t>
+    <t>2022-11-17T21:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:31:13+00:00</t>
+    <t>2022-11-17T21:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:33:43+00:00</t>
+    <t>2022-11-17T22:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T22:26:34+00:00</t>
+    <t>2022-11-17T23:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T23:34:37+00:00</t>
+    <t>2022-11-18T20:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T20:35:33+00:00</t>
+    <t>2022-11-29T21:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T21:08:03+00:00</t>
+    <t>2022-11-30T16:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T16:25:41+00:00</t>
+    <t>2022-11-30T17:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T17:04:23+00:00</t>
+    <t>2022-11-30T20:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-owner-extension</t>
+    <t>http://hlth.gov.bc.ca/fhir/provider/StructureDefinition/bc-owner-extension</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:32:54+00:00</t>
+    <t>2022-11-30T20:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:54:53+00:00</t>
+    <t>2022-11-30T21:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.9</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T21:55:32+00:00</t>
+    <t>2022-12-01T19:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:15:43+00:00</t>
+    <t>2022-12-12T23:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T23:25:59+00:00</t>
+    <t>2022-12-13T16:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T16:34:13+00:00</t>
+    <t>2022-12-13T17:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T17:07:06+00:00</t>
+    <t>2022-12-13T19:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T19:55:00+00:00</t>
+    <t>2022-12-16T17:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -669,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -679,41 +682,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -825,93 +828,96 @@
       <c r="AJ1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -920,38 +926,41 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>82</v>
@@ -959,199 +968,205 @@
       <c r="L3" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
@@ -1162,98 +1177,101 @@
       <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R5" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>76</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>103</v>
@@ -1261,75 +1279,78 @@
       <c r="L6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>99</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ6">
+  <autoFilter ref="A1:AK6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T17:01:23+00:00</t>
+    <t>2022-12-16T22:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T22:41:35+00:00</t>
+    <t>2022-12-19T22:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T22:53:23+00:00</t>
+    <t>2022-12-20T17:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T17:05:36+00:00</t>
+    <t>2022-12-20T21:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T21:28:56+00:00</t>
+    <t>2022-12-20T23:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:28:16+00:00</t>
+    <t>2022-12-20T23:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:39:21+00:00</t>
+    <t>2023-01-17T22:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -860,7 +864,7 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -926,7 +930,7 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>76</v>
@@ -937,10 +941,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -951,7 +955,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -963,13 +967,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1020,13 +1024,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1035,15 +1039,15 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1066,13 +1070,13 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1111,19 +1115,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1135,7 +1139,7 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
@@ -1143,10 +1147,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1154,10 +1158,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -1169,16 +1173,16 @@
         <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1228,13 +1232,13 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>76</v>
@@ -1243,15 +1247,15 @@
         <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1259,13 +1263,13 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>76</v>
@@ -1274,13 +1278,13 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1331,22 +1335,22 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T22:49:54+00:00</t>
+    <t>2023-01-23T22:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T22:02:59+00:00</t>
+    <t>2023-01-24T00:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T00:02:12+00:00</t>
+    <t>2023-01-26T00:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T00:24:40+00:00</t>
+    <t>2023-01-26T22:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T22:19:10+00:00</t>
+    <t>2023-01-31T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:52:42+00:00</t>
+    <t>2023-02-08T21:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:16:12+00:00</t>
+    <t>2023-02-08T21:47:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:47:45+00:00</t>
+    <t>2023-02-21T21:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:05:43+00:00</t>
+    <t>2023-02-21T22:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T22:17:26+00:00</t>
+    <t>2023-02-22T23:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T23:59:38+00:00</t>
+    <t>2023-02-23T18:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T18:05:52+00:00</t>
+    <t>2023-02-23T19:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:08:00+00:00</t>
+    <t>2023-02-23T19:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:09:50+00:00</t>
+    <t>2023-03-13T17:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T17:50:39+00:00</t>
+    <t>2023-03-16T20:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T20:48:21+00:00</t>
+    <t>2023-03-23T17:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:35:31+00:00</t>
+    <t>2023-03-23T17:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:54:25+00:00</t>
+    <t>2023-03-23T23:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T23:03:49+00:00</t>
+    <t>2023-03-24T16:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T20:46:29+00:00</t>
+    <t>2023-03-31T19:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T19:02:02+00:00</t>
+    <t>2023-04-13T21:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T21:33:55+00:00</t>
+    <t>2023-04-13T22:55:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T22:55:41+00:00</t>
+    <t>2023-04-18T21:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T21:17:28+00:00</t>
+    <t>2023-04-19T20:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T20:43:06+00:00</t>
+    <t>2023-04-19T22:41:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T22:41:00+00:00</t>
+    <t>2023-04-21T17:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:16+00:00</t>
+    <t>2023-04-21T17:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:46+00:00</t>
+    <t>2023-04-21T21:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T21:33:06+00:00</t>
+    <t>2023-05-05T19:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T19:53:30+00:00</t>
+    <t>2023-06-12T18:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,117 +133,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -470,10 +359,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -676,7 +565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -687,674 +576,559 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="G1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>75</v>
+      <c r="AJ1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>87</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" hidden="true">
-      <c r="A6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK6">
+  <autoFilter ref="A1:AK5">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1364,7 +1138,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T18:37:27+00:00</t>
+    <t>2023-06-12T22:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:51:11+00:00</t>
+    <t>2023-06-22T17:12:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T17:12:55+00:00</t>
+    <t>2023-08-10T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:02:33+00:00</t>
+    <t>2023-08-11T20:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T18:39:03+00:00</t>
+    <t>2023-08-22T18:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -195,10 +199,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -707,7 +707,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -729,7 +729,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -741,13 +741,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -798,13 +798,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -813,15 +813,15 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -844,13 +844,13 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -889,19 +889,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -913,7 +913,7 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>39</v>
@@ -932,10 +932,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>39</v>
@@ -1009,10 +1009,10 @@
         <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>39</v>
@@ -1037,10 +1037,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>66</v>
@@ -1115,7 +1115,7 @@
         <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -565,7 +676,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -576,559 +687,674 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK5">
+  <autoFilter ref="A1:AK6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1138,7 +1364,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI4">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,37 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Identifier</t>
+  </si>
+  <si>
+    <t>element:ContactPoint</t>
+  </si>
+  <si>
+    <t>element:Address</t>
+  </si>
+  <si>
+    <t>element:HumanName</t>
+  </si>
+  <si>
+    <t>element:Practitioner</t>
+  </si>
+  <si>
+    <t>element:Practitioner.qualification</t>
+  </si>
+  <si>
+    <t>element:Practitioner.communication</t>
+  </si>
+  <si>
+    <t>element:PractitionerRole</t>
+  </si>
+  <si>
+    <t>element:PractitionerRole.specialty</t>
+  </si>
+  <si>
+    <t>element:Organization.name</t>
+  </si>
+  <si>
+    <t>element:Extension</t>
   </si>
   <si>
     <t>ID</t>
@@ -497,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -667,6 +697,86 @@
       </c>
       <c r="B21" t="s" s="2">
         <v>38</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -725,115 +835,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" hidden="true">
@@ -845,26 +955,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -875,482 +985,482 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AH3" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="121">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -159,7 +159,16 @@
     <t>element:PractitionerRole.specialty</t>
   </si>
   <si>
+    <t>element:OrganizationAffiliation</t>
+  </si>
+  <si>
     <t>element:Organization.name</t>
+  </si>
+  <si>
+    <t>element:Organization</t>
+  </si>
+  <si>
+    <t>element:Location.name</t>
   </si>
   <si>
     <t>element:Extension</t>
@@ -527,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -777,6 +786,30 @@
       </c>
       <c r="B31" t="s" s="2">
         <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -835,115 +868,115 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" hidden="true">
@@ -955,26 +988,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -985,482 +1018,482 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-owner-extension.xlsx
+++ b/StructureDefinition-bc-owner-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
